--- a/2.xlsx
+++ b/2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rstaffolani\Desktop\SALUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1154A347-74B8-41C3-ABEE-300B6F39C095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8D2D223-1822-4BE0-A7CA-668B4451EA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{98A57C82-C02E-4F54-B005-0738C8EB8502}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0A9CA734-BBF6-4E4D-90F8-76DA505AE050}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="402">
   <si>
     <t>Equipo</t>
   </si>
@@ -174,760 +174,1060 @@
     <t>Calidad – GEO</t>
   </si>
   <si>
-    <t>2553630</t>
-  </si>
-  <si>
-    <t>ADEA Pilar (ex Addoc)</t>
-  </si>
-  <si>
-    <t>AV. LUIS LAGOMARSINO1750 (EX RN 8 KM 51,200)</t>
+    <t>2541543</t>
+  </si>
+  <si>
+    <t>Fresenius Medical Care Argentina SA</t>
+  </si>
+  <si>
+    <t>N° 10 ENTRE 9 Y 11 PARQUE INDUS</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>0800</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0012537600</t>
+  </si>
+  <si>
+    <t>000000000002541543</t>
+  </si>
+  <si>
+    <t>1629</t>
+  </si>
+  <si>
+    <t>Envio</t>
+  </si>
+  <si>
+    <t>20251105</t>
+  </si>
+  <si>
+    <t>No Visitado</t>
+  </si>
+  <si>
+    <t>GBAO</t>
+  </si>
+  <si>
+    <t>PENDIENTE DE RENDICION</t>
+  </si>
+  <si>
+    <t>AR</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>Buenos Aires</t>
-  </si>
-  <si>
-    <t>0800</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0012549640</t>
-  </si>
-  <si>
-    <t>000000000002553630</t>
-  </si>
-  <si>
-    <t>1629</t>
-  </si>
-  <si>
-    <t>Envio</t>
-  </si>
-  <si>
-    <t>20251118</t>
+    <t>2541544</t>
+  </si>
+  <si>
+    <t>0012537602</t>
+  </si>
+  <si>
+    <t>000000000002541544</t>
+  </si>
+  <si>
+    <t>2541545</t>
+  </si>
+  <si>
+    <t>0012537603</t>
+  </si>
+  <si>
+    <t>000000000002541545</t>
+  </si>
+  <si>
+    <t>2542924</t>
+  </si>
+  <si>
+    <t>0012538975</t>
+  </si>
+  <si>
+    <t>000000000002542924</t>
+  </si>
+  <si>
+    <t>20251106</t>
+  </si>
+  <si>
+    <t>2542925</t>
+  </si>
+  <si>
+    <t>0012538976</t>
+  </si>
+  <si>
+    <t>000000000002542925</t>
+  </si>
+  <si>
+    <t>2542926</t>
+  </si>
+  <si>
+    <t>0012538977</t>
+  </si>
+  <si>
+    <t>000000000002542926</t>
+  </si>
+  <si>
+    <t>2542927</t>
+  </si>
+  <si>
+    <t>0012538978</t>
+  </si>
+  <si>
+    <t>000000000002542927</t>
+  </si>
+  <si>
+    <t>2544053</t>
+  </si>
+  <si>
+    <t>0012540105</t>
+  </si>
+  <si>
+    <t>000000000002544053</t>
+  </si>
+  <si>
+    <t>20251107</t>
+  </si>
+  <si>
+    <t>2544054</t>
+  </si>
+  <si>
+    <t>0012540106</t>
+  </si>
+  <si>
+    <t>000000000002544054</t>
+  </si>
+  <si>
+    <t>2544055</t>
+  </si>
+  <si>
+    <t>0012540107</t>
+  </si>
+  <si>
+    <t>000000000002544055</t>
+  </si>
+  <si>
+    <t>1228707574</t>
+  </si>
+  <si>
+    <t>UNID SANIT Nº 13 - SANTA CATALINA</t>
+  </si>
+  <si>
+    <t>NICARAGUA 1471 Y CEPEDA</t>
+  </si>
+  <si>
+    <t>LUIS GUILLON</t>
+  </si>
+  <si>
+    <t>LOG IN FARMA SRL</t>
+  </si>
+  <si>
+    <t>-34.79001</t>
+  </si>
+  <si>
+    <t>-58.46276</t>
+  </si>
+  <si>
+    <t>MS004843004</t>
+  </si>
+  <si>
+    <t>000000001228707574</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>1838</t>
+  </si>
+  <si>
+    <t>20251112</t>
+  </si>
+  <si>
+    <t>Distribucion Botiquines Estandar</t>
   </si>
   <si>
     <t>No responde al Llamado</t>
   </si>
   <si>
+    <t>GBAS</t>
+  </si>
+  <si>
+    <t>PENDIENTE DE DISTRIBUCION</t>
+  </si>
+  <si>
+    <t>Dist. medicamentos, insum. y Tec. médica</t>
+  </si>
+  <si>
+    <t>HERE</t>
+  </si>
+  <si>
+    <t>ROOFTOP</t>
+  </si>
+  <si>
+    <t>1228707660</t>
+  </si>
+  <si>
+    <t>MS004843003</t>
+  </si>
+  <si>
+    <t>000000001228707660</t>
+  </si>
+  <si>
+    <t>UrlHere</t>
+  </si>
+  <si>
+    <t>1228708071</t>
+  </si>
+  <si>
+    <t>UNID. SANIT. POSTA PARQUE PASO DEL</t>
+  </si>
+  <si>
+    <t>BELTRAN ESQ. BELGRANO</t>
+  </si>
+  <si>
+    <t>PASO DEL REY</t>
+  </si>
+  <si>
+    <t>-34.46465</t>
+  </si>
+  <si>
+    <t>-58.6477</t>
+  </si>
+  <si>
+    <t>MS004843121</t>
+  </si>
+  <si>
+    <t>000000001228708071</t>
+  </si>
+  <si>
+    <t>1742</t>
+  </si>
+  <si>
+    <t>APPROXIMATE</t>
+  </si>
+  <si>
+    <t>1228708128</t>
+  </si>
+  <si>
+    <t>MS004843122</t>
+  </si>
+  <si>
+    <t>000000001228708128</t>
+  </si>
+  <si>
+    <t>1228708193</t>
+  </si>
+  <si>
+    <t>UNIDAD SANITARIA ARCO IRIS AMBULATO</t>
+  </si>
+  <si>
+    <t>DAVILA E/ BURELA Y TABOADA</t>
+  </si>
+  <si>
+    <t>MERLO</t>
+  </si>
+  <si>
+    <t>-34.67712</t>
+  </si>
+  <si>
+    <t>-58.78618</t>
+  </si>
+  <si>
+    <t>MS004843705</t>
+  </si>
+  <si>
+    <t>000000001228708193</t>
+  </si>
+  <si>
+    <t>1722</t>
+  </si>
+  <si>
+    <t>1228708223</t>
+  </si>
+  <si>
+    <t>MS004843123</t>
+  </si>
+  <si>
+    <t>000000001228708223</t>
+  </si>
+  <si>
+    <t>1228708279</t>
+  </si>
+  <si>
+    <t>MS004843706</t>
+  </si>
+  <si>
+    <t>000000001228708279</t>
+  </si>
+  <si>
+    <t>1228708298</t>
+  </si>
+  <si>
+    <t>MS004843124</t>
+  </si>
+  <si>
+    <t>000000001228708298</t>
+  </si>
+  <si>
+    <t>1228708326</t>
+  </si>
+  <si>
+    <t>POSTA SANITARIA SAN CARLOS</t>
+  </si>
+  <si>
+    <t>HILARIO ASCASUBI S/N E/ COSTA RICA Y ZAR</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>-34.63503</t>
+  </si>
+  <si>
+    <t>-58.82176</t>
+  </si>
+  <si>
+    <t>MS004843408</t>
+  </si>
+  <si>
+    <t>000000001228708326</t>
+  </si>
+  <si>
+    <t>1744</t>
+  </si>
+  <si>
+    <t>1228708341</t>
+  </si>
+  <si>
+    <t>CIC EL TRIANGULO</t>
+  </si>
+  <si>
+    <t>VIDT Y PODESTA</t>
+  </si>
+  <si>
+    <t>AGUSTIN FERRARI</t>
+  </si>
+  <si>
+    <t>-34.71676</t>
+  </si>
+  <si>
+    <t>-58.76467</t>
+  </si>
+  <si>
+    <t>MS004843484</t>
+  </si>
+  <si>
+    <t>000000001228708341</t>
+  </si>
+  <si>
+    <t>1723</t>
+  </si>
+  <si>
+    <t>UNKNOW</t>
+  </si>
+  <si>
+    <t>1228708370</t>
+  </si>
+  <si>
+    <t>MS004843409</t>
+  </si>
+  <si>
+    <t>000000001228708370</t>
+  </si>
+  <si>
+    <t>1228708383</t>
+  </si>
+  <si>
+    <t>MS004843485</t>
+  </si>
+  <si>
+    <t>000000001228708383</t>
+  </si>
+  <si>
+    <t>1228708419</t>
+  </si>
+  <si>
+    <t>MS004843486</t>
+  </si>
+  <si>
+    <t>000000001228708419</t>
+  </si>
+  <si>
+    <t>1228708462</t>
+  </si>
+  <si>
+    <t>CENTRO DE SALUD Bº 6 DE ENERO</t>
+  </si>
+  <si>
+    <t>EL TEATRO S/N E/ LIVIA KOPPMAN Y PARIS</t>
+  </si>
+  <si>
+    <t>-34.57951</t>
+  </si>
+  <si>
+    <t>-58.87606</t>
+  </si>
+  <si>
+    <t>MS004841120</t>
+  </si>
+  <si>
+    <t>000000001228708462</t>
+  </si>
+  <si>
+    <t>Fuera de Zona</t>
+  </si>
+  <si>
+    <t>1228708516</t>
+  </si>
+  <si>
+    <t>MS004841121</t>
+  </si>
+  <si>
+    <t>000000001228708516</t>
+  </si>
+  <si>
+    <t>1228708571</t>
+  </si>
+  <si>
+    <t>SPB - UNIDAD PENAL Nº 39</t>
+  </si>
+  <si>
+    <t>PRINGLES E/ ECUADOR Y ACEVEDO</t>
+  </si>
+  <si>
+    <t>ITUZAINGO</t>
+  </si>
+  <si>
+    <t>-34.65645</t>
+  </si>
+  <si>
+    <t>-58.69606</t>
+  </si>
+  <si>
+    <t>MS004841822</t>
+  </si>
+  <si>
+    <t>000000001228708571</t>
+  </si>
+  <si>
+    <t>1714</t>
+  </si>
+  <si>
+    <t>Persona No Habilitada</t>
+  </si>
+  <si>
+    <t>1228708579</t>
+  </si>
+  <si>
+    <t>CENTRO DE SALUD LOS HORNOS</t>
+  </si>
+  <si>
+    <t>MIGUEL LILLO Y TTE GRAL PABLO RICHIERI</t>
+  </si>
+  <si>
+    <t>CUARTEL V</t>
+  </si>
+  <si>
+    <t>-34.55906</t>
+  </si>
+  <si>
+    <t>-58.7966</t>
+  </si>
+  <si>
+    <t>MS004841122</t>
+  </si>
+  <si>
+    <t>000000001228708579</t>
+  </si>
+  <si>
+    <t>1228708606</t>
+  </si>
+  <si>
+    <t>MS004841123</t>
+  </si>
+  <si>
+    <t>000000001228708606</t>
+  </si>
+  <si>
+    <t>1228708764</t>
+  </si>
+  <si>
+    <t>UNID. SANIT. EL VERGEL</t>
+  </si>
+  <si>
+    <t>LUIS PEDRO AGOTE 6112  E/ VIEYTES Y LA M</t>
+  </si>
+  <si>
+    <t>-34.55697</t>
+  </si>
+  <si>
+    <t>-58.84541</t>
+  </si>
+  <si>
+    <t>MS004843679</t>
+  </si>
+  <si>
+    <t>000000001228708764</t>
+  </si>
+  <si>
+    <t>1228708793</t>
+  </si>
+  <si>
+    <t>MS004843680</t>
+  </si>
+  <si>
+    <t>000000001228708793</t>
+  </si>
+  <si>
+    <t>1228709127</t>
+  </si>
+  <si>
+    <t>UNID SANIT Nº 09 - SAN IGNACIO</t>
+  </si>
+  <si>
+    <t>MATHEU 2665</t>
+  </si>
+  <si>
+    <t>MONTE GRANDE</t>
+  </si>
+  <si>
+    <t>-34.8202509</t>
+  </si>
+  <si>
+    <t>-58.5037897</t>
+  </si>
+  <si>
+    <t>MS004842951</t>
+  </si>
+  <si>
+    <t>000000001228709127</t>
+  </si>
+  <si>
+    <t>1842</t>
+  </si>
+  <si>
+    <t>Requisitos Incompletos</t>
+  </si>
+  <si>
+    <t>UrlGoogle</t>
+  </si>
+  <si>
+    <t>1228709129</t>
+  </si>
+  <si>
+    <t>UNIDAD SANITARIA Nº 32 LA CASTELLAN</t>
+  </si>
+  <si>
+    <t>MANUEL A FRESCO 579</t>
+  </si>
+  <si>
+    <t>MARIANO ACOSTA</t>
+  </si>
+  <si>
+    <t>-34.7279216</t>
+  </si>
+  <si>
+    <t>-58.8014007</t>
+  </si>
+  <si>
+    <t>MS004843319</t>
+  </si>
+  <si>
+    <t>000000001228709129</t>
+  </si>
+  <si>
+    <t>1228709201</t>
+  </si>
+  <si>
+    <t>UNIDAD SANITARIA Nº 09 (CIC RIO ALE</t>
+  </si>
+  <si>
+    <t>LORIA 5505 E/ GUAMINI Y GRITO DE ASCENCI</t>
+  </si>
+  <si>
+    <t>-34.69023</t>
+  </si>
+  <si>
+    <t>-58.83882</t>
+  </si>
+  <si>
+    <t>MS004843392</t>
+  </si>
+  <si>
+    <t>000000001228709201</t>
+  </si>
+  <si>
+    <t>1228709209</t>
+  </si>
+  <si>
+    <t>-34.83424</t>
+  </si>
+  <si>
+    <t>-58.44187</t>
+  </si>
+  <si>
+    <t>MS004842952</t>
+  </si>
+  <si>
+    <t>000000001228709209</t>
+  </si>
+  <si>
+    <t>1228709210</t>
+  </si>
+  <si>
+    <t>UNIDAD SANITARIA GONZALEZ OTHARAN</t>
+  </si>
+  <si>
+    <t>ZORRILLA DE SAN MARTIN 4249 Y SEGUNDO SO</t>
+  </si>
+  <si>
+    <t>-34.61342</t>
+  </si>
+  <si>
+    <t>-58.70093</t>
+  </si>
+  <si>
+    <t>MS004842643</t>
+  </si>
+  <si>
+    <t>000000001228709210</t>
+  </si>
+  <si>
+    <t>1228709252</t>
+  </si>
+  <si>
+    <t>MS004842644</t>
+  </si>
+  <si>
+    <t>000000001228709252</t>
+  </si>
+  <si>
+    <t>1228709291</t>
+  </si>
+  <si>
+    <t>MS004842645</t>
+  </si>
+  <si>
+    <t>000000001228709291</t>
+  </si>
+  <si>
+    <t>1228709299</t>
+  </si>
+  <si>
+    <t>UNID. SANIT. Nº 02</t>
+  </si>
+  <si>
+    <t>12 DE OCTUBRE 1379</t>
+  </si>
+  <si>
+    <t>LA MORITA</t>
+  </si>
+  <si>
+    <t>-34.73846</t>
+  </si>
+  <si>
+    <t>-58.42593</t>
+  </si>
+  <si>
+    <t>MS004843125</t>
+  </si>
+  <si>
+    <t>000000001228709299</t>
+  </si>
+  <si>
+    <t>1228709347</t>
+  </si>
+  <si>
+    <t>MS004843126</t>
+  </si>
+  <si>
+    <t>000000001228709347</t>
+  </si>
+  <si>
+    <t>1228709482</t>
+  </si>
+  <si>
+    <t>UNIDAD SANITARIA 17 DE OCTUBRE</t>
+  </si>
+  <si>
+    <t>EL RANCHO Y DEL PRETAL - Vª UDAONDO</t>
+  </si>
+  <si>
+    <t>-34.62496</t>
+  </si>
+  <si>
+    <t>-58.67177</t>
+  </si>
+  <si>
+    <t>MS004841347</t>
+  </si>
+  <si>
+    <t>000000001228709482</t>
+  </si>
+  <si>
+    <t>1228709512</t>
+  </si>
+  <si>
+    <t>UNID SANIT Nº 14 - MONTANA</t>
+  </si>
+  <si>
+    <t>GANDULFO 1460 Y VIDAL</t>
+  </si>
+  <si>
+    <t>-34.8124493</t>
+  </si>
+  <si>
+    <t>-58.5042931</t>
+  </si>
+  <si>
+    <t>MS004842918</t>
+  </si>
+  <si>
+    <t>000000001228709512</t>
+  </si>
+  <si>
+    <t>GoogleAPI</t>
+  </si>
+  <si>
+    <t>1228709531</t>
+  </si>
+  <si>
+    <t>-34.72792</t>
+  </si>
+  <si>
+    <t>-58.8016</t>
+  </si>
+  <si>
+    <t>MS004843318</t>
+  </si>
+  <si>
+    <t>000000001228709531</t>
+  </si>
+  <si>
+    <t>1228709566</t>
+  </si>
+  <si>
+    <t>MS004843391</t>
+  </si>
+  <si>
+    <t>000000001228709566</t>
+  </si>
+  <si>
+    <t>1228709568</t>
+  </si>
+  <si>
+    <t>MS004842919</t>
+  </si>
+  <si>
+    <t>000000001228709568</t>
+  </si>
+  <si>
+    <t>1228725320</t>
+  </si>
+  <si>
+    <t>UNID. SANIT. BONGIOVANNI</t>
+  </si>
+  <si>
+    <t>REMEDIOS DE ESCALADA 4619 ESQ BELAUSTEGU</t>
+  </si>
+  <si>
+    <t>-34.62488</t>
+  </si>
+  <si>
+    <t>-58.74692</t>
+  </si>
+  <si>
+    <t>MS004842245</t>
+  </si>
+  <si>
+    <t>000000001228725320</t>
+  </si>
+  <si>
+    <t>1228725384</t>
+  </si>
+  <si>
+    <t>UNIDAD SANITARIA Nº 38</t>
+  </si>
+  <si>
+    <t>RUTA 200 E/ 24 DE NOVIEMBRE Y FINLAY</t>
+  </si>
+  <si>
+    <t>-34.7261</t>
+  </si>
+  <si>
+    <t>-58.77628</t>
+  </si>
+  <si>
+    <t>MS004843412</t>
+  </si>
+  <si>
+    <t>000000001228725384</t>
+  </si>
+  <si>
+    <t>1228725390</t>
+  </si>
+  <si>
+    <t>UNID SANIT Nº 20</t>
+  </si>
+  <si>
+    <t>CARLOS TEJEDOR 947 - LA CELIA</t>
+  </si>
+  <si>
+    <t>TRISTAN SUAREZ</t>
+  </si>
+  <si>
+    <t>-34.83043</t>
+  </si>
+  <si>
+    <t>-58.58524</t>
+  </si>
+  <si>
+    <t>MS004841141</t>
+  </si>
+  <si>
+    <t>000000001228725390</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1228725416</t>
+  </si>
+  <si>
+    <t>MS004843413</t>
+  </si>
+  <si>
+    <t>000000001228725416</t>
+  </si>
+  <si>
+    <t>1228725435</t>
+  </si>
+  <si>
+    <t>MS004843414</t>
+  </si>
+  <si>
+    <t>000000001228725435</t>
+  </si>
+  <si>
+    <t>1229042784</t>
+  </si>
+  <si>
+    <t>SALA DE PRIM AUX ROQUE PEREZ</t>
+  </si>
+  <si>
+    <t>CARBAJAL 1428</t>
+  </si>
+  <si>
+    <t>VIRREY DEL PINO</t>
+  </si>
+  <si>
+    <t>-34.773957</t>
+  </si>
+  <si>
+    <t>-58.7271503</t>
+  </si>
+  <si>
+    <t>MS004844498</t>
+  </si>
+  <si>
+    <t>000000001229042784</t>
+  </si>
+  <si>
+    <t>1761</t>
+  </si>
+  <si>
+    <t>20251117</t>
+  </si>
+  <si>
+    <t>1229042882</t>
+  </si>
+  <si>
+    <t>PUESTO FIJO LA FLORESTA</t>
+  </si>
+  <si>
+    <t>CALIFORNIA Y COLORADO</t>
+  </si>
+  <si>
+    <t>-34.82533</t>
+  </si>
+  <si>
+    <t>-58.63875</t>
+  </si>
+  <si>
+    <t>MS004844675</t>
+  </si>
+  <si>
+    <t>000000001229042882</t>
+  </si>
+  <si>
+    <t>1759</t>
+  </si>
+  <si>
+    <t>1229043870</t>
+  </si>
+  <si>
+    <t>SALA DE SALUD SABIN</t>
+  </si>
+  <si>
+    <t>MANUEL ARIAS 4241</t>
+  </si>
+  <si>
+    <t>ISIDRO CASANOVA</t>
+  </si>
+  <si>
+    <t>-34.7599</t>
+  </si>
+  <si>
+    <t>-58.6323</t>
+  </si>
+  <si>
+    <t>MS004844814</t>
+  </si>
+  <si>
+    <t>000000001229043870</t>
+  </si>
+  <si>
+    <t>1765</t>
+  </si>
+  <si>
+    <t>1229044094</t>
+  </si>
+  <si>
+    <t>MS004844815</t>
+  </si>
+  <si>
+    <t>000000001229044094</t>
+  </si>
+  <si>
+    <t>1229044750</t>
+  </si>
+  <si>
+    <t>HOSPITAL MOVIL MI ESPERANZA - EL MI</t>
+  </si>
+  <si>
+    <t>PARNASO ENTRE EL BAMBU Y EL DORADO</t>
+  </si>
+  <si>
+    <t>LA MATANZA</t>
+  </si>
+  <si>
+    <t>-34.66143</t>
+  </si>
+  <si>
+    <t>-58.56587</t>
+  </si>
+  <si>
+    <t>MS004845050</t>
+  </si>
+  <si>
+    <t>000000001229044750</t>
+  </si>
+  <si>
+    <t>1229045078</t>
+  </si>
+  <si>
+    <t>MS004845051</t>
+  </si>
+  <si>
+    <t>000000001229045078</t>
+  </si>
+  <si>
+    <t>1229280581</t>
+  </si>
+  <si>
+    <t>MARIA ROSA GUTIERREZ</t>
+  </si>
+  <si>
+    <t>AV.RIVADAVIA 5783-TERCER PISO -1</t>
+  </si>
+  <si>
+    <t>CAPITAL FEDERAL</t>
+  </si>
+  <si>
+    <t>Capital Federal</t>
+  </si>
+  <si>
+    <t>Ocasa Uruguay SA</t>
+  </si>
+  <si>
+    <t>5491166222011</t>
+  </si>
+  <si>
+    <t>U720970</t>
+  </si>
+  <si>
+    <t>000000001229280581</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>1406</t>
+  </si>
+  <si>
+    <t>20251120</t>
+  </si>
+  <si>
+    <t>DOX</t>
+  </si>
+  <si>
+    <t>BUE</t>
+  </si>
+  <si>
+    <t>Envío courier documentos</t>
+  </si>
+  <si>
+    <t>1229463758</t>
+  </si>
+  <si>
+    <t>POLIEX</t>
+  </si>
+  <si>
+    <t>CALLE 20</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>PILAR</t>
+  </si>
+  <si>
+    <t>ORG COURIER ARG</t>
+  </si>
+  <si>
+    <t>NEVERAS25NOV2025</t>
+  </si>
+  <si>
+    <t>000000001229463758</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SE ENVIAN NEVERAS PARA RECICLADO</t>
+  </si>
+  <si>
+    <t>20251125</t>
+  </si>
+  <si>
+    <t>Seguimiento de pallets entre sucursales</t>
+  </si>
+  <si>
     <t>GBAN</t>
   </si>
   <si>
-    <t>PENDIENTE DE RENDICION</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>2553852</t>
-  </si>
-  <si>
-    <t>Fresenius Medical Care Argentina SA</t>
-  </si>
-  <si>
-    <t>N° 10 ENTRE 9 Y 11 PARQUE INDUS</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>0012549856</t>
-  </si>
-  <si>
-    <t>000000000002553852</t>
-  </si>
-  <si>
-    <t>20251119</t>
-  </si>
-  <si>
-    <t>GBAO</t>
-  </si>
-  <si>
-    <t>2554330</t>
-  </si>
-  <si>
-    <t>LOG IN -TORTUGUITAS-</t>
-  </si>
-  <si>
-    <t>ING. EIFEL 4180</t>
-  </si>
-  <si>
-    <t>0012550348</t>
-  </si>
-  <si>
-    <t>000000000002554330</t>
-  </si>
-  <si>
-    <t>1667</t>
-  </si>
-  <si>
-    <t>Entregado</t>
-  </si>
-  <si>
-    <t>PEND. DE CARGA DE NOVEDADES</t>
-  </si>
-  <si>
-    <t>2554375</t>
-  </si>
-  <si>
-    <t>0012550377</t>
-  </si>
-  <si>
-    <t>000000000002554375</t>
-  </si>
-  <si>
-    <t>2554393</t>
-  </si>
-  <si>
-    <t>0012550402</t>
-  </si>
-  <si>
-    <t>000000000002554393</t>
-  </si>
-  <si>
-    <t>2554397</t>
-  </si>
-  <si>
-    <t>0012550410</t>
-  </si>
-  <si>
-    <t>000000000002554397</t>
-  </si>
-  <si>
-    <t>2554563</t>
-  </si>
-  <si>
-    <t>0012550573</t>
-  </si>
-  <si>
-    <t>000000000002554563</t>
-  </si>
-  <si>
-    <t>2554565</t>
-  </si>
-  <si>
-    <t>0012550577</t>
-  </si>
-  <si>
-    <t>000000000002554565</t>
-  </si>
-  <si>
-    <t>2554686</t>
-  </si>
-  <si>
-    <t>0012550701</t>
-  </si>
-  <si>
-    <t>000000000002554686</t>
-  </si>
-  <si>
-    <t>2554811</t>
-  </si>
-  <si>
-    <t>RINDE ELI LILLY</t>
-  </si>
-  <si>
-    <t>TRONADOR 4890 P12°</t>
-  </si>
-  <si>
-    <t>Capital Federal</t>
-  </si>
-  <si>
-    <t>0012550828</t>
-  </si>
-  <si>
-    <t>000000000002554811</t>
-  </si>
-  <si>
-    <t>1430</t>
-  </si>
-  <si>
-    <t>No Visitado</t>
-  </si>
-  <si>
-    <t>BUE</t>
-  </si>
-  <si>
-    <t>1227229720</t>
-  </si>
-  <si>
-    <t>CEMIC</t>
-  </si>
-  <si>
-    <t>AVENIDA GALVAN 4102</t>
-  </si>
-  <si>
-    <t>CAPITAL FEDERAL</t>
-  </si>
-  <si>
-    <t>Ocasa Inc ( Los Angeles)</t>
-  </si>
-  <si>
-    <t>5411529901100</t>
-  </si>
-  <si>
-    <t>M3118486</t>
-  </si>
-  <si>
-    <t>000000001227229720</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>1431</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33 KITS / BULK SUPPLIES</t>
-  </si>
-  <si>
-    <t>20251023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Carga kits  internacional</t>
-  </si>
-  <si>
-    <t>Reencaminada</t>
-  </si>
-  <si>
-    <t>Carga kits  internacional</t>
-  </si>
-  <si>
-    <t>1227567072</t>
-  </si>
-  <si>
-    <t>Hospital Universitario Austral</t>
-  </si>
-  <si>
-    <t>AV. JUAN DOMINGO PERÓN 1500 DERQUI UNIDAD DE INVESTIGACION</t>
-  </si>
-  <si>
-    <t>BUENOS AIRES</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Ocasa Inc (New York)</t>
-  </si>
-  <si>
-    <t>541165293231</t>
-  </si>
-  <si>
-    <t>N9011022</t>
-  </si>
-  <si>
-    <t>000000001227567072</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> #KITS: 29</t>
-  </si>
-  <si>
-    <t>20251028</t>
-  </si>
-  <si>
-    <t>1227996343</t>
-  </si>
-  <si>
-    <t>CENTRO MEDICO DRA LAURA MAFFEI</t>
-  </si>
-  <si>
-    <t>3375 AVENIDA CERVINO</t>
-  </si>
-  <si>
-    <t>3375</t>
-  </si>
-  <si>
-    <t>Ocasa Inc (Miami)</t>
-  </si>
-  <si>
-    <t>5541148019001</t>
-  </si>
-  <si>
-    <t>M3045664</t>
-  </si>
-  <si>
-    <t>000000001227996343</t>
-  </si>
-  <si>
-    <t>1425</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 116-KITS/BULK SUPPLIES</t>
-  </si>
-  <si>
-    <t>20251104</t>
-  </si>
-  <si>
-    <t>Rechazado</t>
-  </si>
-  <si>
-    <t>1228247773</t>
-  </si>
-  <si>
-    <t>ASOCIACION DE BENEFICENCIA HOSPITAL</t>
-  </si>
-  <si>
-    <t>CAMPANA 4658 SUBSUELO</t>
-  </si>
-  <si>
-    <t>549115E12</t>
-  </si>
-  <si>
-    <t>M3046138</t>
-  </si>
-  <si>
-    <t>000000001228247773</t>
-  </si>
-  <si>
-    <t>1419</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90-KITS/BULK SUPPLIES</t>
-  </si>
-  <si>
-    <t>20251106</t>
-  </si>
-  <si>
-    <t>DESPACHADO</t>
-  </si>
-  <si>
-    <t>1228708462</t>
-  </si>
-  <si>
-    <t>CENTRO DE SALUD Bº 6 DE ENERO</t>
-  </si>
-  <si>
-    <t>EL TEATRO S/N E/ LIVIA KOPPMAN Y PARIS</t>
-  </si>
-  <si>
-    <t>MORENO</t>
-  </si>
-  <si>
-    <t>LOG IN FARMA SRL</t>
-  </si>
-  <si>
-    <t>-34.57951</t>
-  </si>
-  <si>
-    <t>-58.87606</t>
-  </si>
-  <si>
-    <t>MS004841120</t>
-  </si>
-  <si>
-    <t>000000001228708462</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>1744</t>
-  </si>
-  <si>
-    <t>20251112</t>
-  </si>
-  <si>
-    <t>Distribucion Botiquines Estandar</t>
-  </si>
-  <si>
-    <t>PENDIENTE DE DISTRIBUCION</t>
-  </si>
-  <si>
-    <t>Dist. medicamentos, insum. y Tec. médica</t>
-  </si>
-  <si>
-    <t>UrlHere</t>
-  </si>
-  <si>
-    <t>UNKNOW</t>
-  </si>
-  <si>
-    <t>1228708516</t>
-  </si>
-  <si>
-    <t>MS004841121</t>
-  </si>
-  <si>
-    <t>000000001228708516</t>
-  </si>
-  <si>
-    <t>HERE</t>
-  </si>
-  <si>
-    <t>1228709200</t>
-  </si>
-  <si>
-    <t>UNID. SANIT. Vª DR ROSELLI</t>
-  </si>
-  <si>
-    <t>HORTENCIA 1907</t>
-  </si>
-  <si>
-    <t>FLORENCIO VARELA</t>
-  </si>
-  <si>
-    <t>-34.8372803</t>
-  </si>
-  <si>
-    <t>-58.276114</t>
-  </si>
-  <si>
-    <t>MS004843654</t>
-  </si>
-  <si>
-    <t>000000001228709200</t>
-  </si>
-  <si>
-    <t>1888</t>
-  </si>
-  <si>
-    <t>No Entrega</t>
-  </si>
-  <si>
-    <t>GBAS</t>
-  </si>
-  <si>
-    <t>UrlGoogle</t>
-  </si>
-  <si>
-    <t>1228709229</t>
-  </si>
-  <si>
-    <t>-34.76455</t>
-  </si>
-  <si>
-    <t>-58.25026</t>
-  </si>
-  <si>
-    <t>MS004843655</t>
-  </si>
-  <si>
-    <t>000000001228709229</t>
-  </si>
-  <si>
-    <t>APPROXIMATE</t>
-  </si>
-  <si>
-    <t>1228725476</t>
-  </si>
-  <si>
-    <t>SALA CORTEZ</t>
-  </si>
-  <si>
-    <t>DEL CARRIL Y LOBOS - Bº Vª ZAPIOLA</t>
-  </si>
-  <si>
-    <t>-34.63125</t>
-  </si>
-  <si>
-    <t>-58.74791</t>
-  </si>
-  <si>
-    <t>MS004842246</t>
-  </si>
-  <si>
-    <t>000000001228725476</t>
-  </si>
-  <si>
-    <t>1742</t>
-  </si>
-  <si>
-    <t>1228725541</t>
-  </si>
-  <si>
-    <t>MS004842247</t>
-  </si>
-  <si>
-    <t>000000001228725541</t>
-  </si>
-  <si>
-    <t>1228725851</t>
-  </si>
-  <si>
-    <t>UNID. SANIT. LAS FLORES</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL 2137</t>
-  </si>
-  <si>
-    <t>CANING</t>
-  </si>
-  <si>
-    <t>-34.85719</t>
-  </si>
-  <si>
-    <t>-58.49787</t>
-  </si>
-  <si>
-    <t>MS004843038</t>
-  </si>
-  <si>
-    <t>000000001228725851</t>
-  </si>
-  <si>
-    <t>1842</t>
-  </si>
-  <si>
-    <t>ROOFTOP</t>
-  </si>
-  <si>
-    <t>1228725871</t>
-  </si>
-  <si>
-    <t>MS004843039</t>
-  </si>
-  <si>
-    <t>000000001228725871</t>
-  </si>
-  <si>
-    <t>1229035361</t>
-  </si>
-  <si>
-    <t>BEATRIZ DEL SEL</t>
-  </si>
-  <si>
-    <t>HOOKE</t>
-  </si>
-  <si>
-    <t>3905</t>
-  </si>
-  <si>
-    <t>TORTUGUITAS</t>
-  </si>
-  <si>
-    <t>ORG COURIER ARG</t>
-  </si>
-  <si>
-    <t>-34.46308136</t>
-  </si>
-  <si>
-    <t>-58.71195984</t>
-  </si>
-  <si>
-    <t>2907480031</t>
-  </si>
-  <si>
-    <t>000000001229035361</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TERMOMETROS FMA</t>
-  </si>
-  <si>
-    <t>20251117</t>
-  </si>
-  <si>
-    <t>SALUD A SUCURSALES OCASA</t>
-  </si>
-  <si>
-    <t>FINALIZADA</t>
-  </si>
-  <si>
     <t>Distribución de paquetes</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>1229058687</t>
-  </si>
-  <si>
-    <t>REJALA, FERNANDO (23127730989)</t>
-  </si>
-  <si>
-    <t>GALVAN 4102</t>
-  </si>
-  <si>
-    <t>CABA</t>
-  </si>
-  <si>
-    <t>80064716</t>
-  </si>
-  <si>
-    <t>000000001229058687</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>Dist. de Medic. Pacientes Particulares</t>
-  </si>
-  <si>
-    <t>1229124907</t>
-  </si>
-  <si>
-    <t>ASOC.CIVIL DE EST.SUP.H.UNIVERS.AUSTRAL</t>
-  </si>
-  <si>
-    <t>AV. JUAN DOMINGO PERON 1500</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>SILMAG SOCIEDAD ANONIMA</t>
-  </si>
-  <si>
-    <t>000000001229124907</t>
-  </si>
-  <si>
-    <t>Dist Medic e Insum Med de RCU a AMBA</t>
-  </si>
-  <si>
-    <t>1229131648</t>
-  </si>
-  <si>
-    <t>ROXANA KARINA UHRICH</t>
-  </si>
-  <si>
-    <t>EIFFEL</t>
-  </si>
-  <si>
-    <t>545</t>
-  </si>
-  <si>
-    <t>LOS POLVORINES</t>
-  </si>
-  <si>
-    <t>MARBE S.A.</t>
-  </si>
-  <si>
-    <t>3363</t>
-  </si>
-  <si>
-    <t>000000001229131648</t>
-  </si>
-  <si>
-    <t>1613</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MEDICAMENTOS AMBIENTE ESTANDAR C/SEGURO</t>
-  </si>
-  <si>
-    <t>1229144786</t>
-  </si>
-  <si>
-    <t>ELI LILLY INTERAMERICA INC. SUC.</t>
-  </si>
-  <si>
-    <t>PLAZA TRONADOR 4890 PISO 12</t>
-  </si>
-  <si>
-    <t>Eli Lilly Interameric Inc.Suc.</t>
-  </si>
-  <si>
-    <t>2844304401</t>
-  </si>
-  <si>
-    <t>000000001229144786</t>
-  </si>
-  <si>
-    <t>PAQUETERIA URGENTE</t>
-  </si>
-  <si>
-    <t>1229211401</t>
-  </si>
-  <si>
-    <t>SUC. OCASA CBN HUB ZONA NORTE</t>
-  </si>
-  <si>
-    <t>OTTO KRAUSSE</t>
-  </si>
-  <si>
-    <t>4208</t>
-  </si>
-  <si>
-    <t>000000001229211401</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SE ENVIAN 7 LECT. HONEYWELL 1472G (28684/28688/28683/28687/ 28679/28680/28681)</t>
-  </si>
-  <si>
-    <t>PAQUETERIA ESTANDAR CON SEGURO</t>
-  </si>
-  <si>
-    <t>1229213942</t>
-  </si>
-  <si>
-    <t>SUC. OCASA TORTUGUITAS (NV3)</t>
-  </si>
-  <si>
-    <t>AV. HOOKE</t>
-  </si>
-  <si>
-    <t>000000001229213942</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SE ENVIA IMP. ZEBRA ZD421 inv:23228 192.168.123.90</t>
-  </si>
-  <si>
-    <t>1229226570</t>
-  </si>
-  <si>
-    <t>OCASA TORTUGUITAS</t>
-  </si>
-  <si>
-    <t>HOOKE 3905</t>
-  </si>
-  <si>
-    <t>2907547412</t>
-  </si>
-  <si>
-    <t>000000001229226570</t>
-  </si>
-  <si>
-    <t>CONTINGENCIAS OPERATIVAS</t>
-  </si>
-  <si>
-    <t>1229249882</t>
-  </si>
-  <si>
-    <t>DGABS</t>
-  </si>
-  <si>
-    <t>RIVADAVIA 524</t>
-  </si>
-  <si>
-    <t>GOBIERNO DE LA CIUDAD DE BUENOS AIR</t>
-  </si>
-  <si>
-    <t>-34.60803202</t>
-  </si>
-  <si>
-    <t>-58.37382925</t>
-  </si>
-  <si>
-    <t>2907552372</t>
-  </si>
-  <si>
-    <t>000000001229249882</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BOLSA 23674010 ENTREGAR ANTES DE LAS 15 HS</t>
-  </si>
-  <si>
-    <t>20251120</t>
-  </si>
-  <si>
-    <t>RETIRO DEL CLIENTE</t>
-  </si>
-  <si>
-    <t>Dist. Medicación y React. Ens. Clínicos</t>
   </si>
 </sst>
 </file>
@@ -1800,8 +2100,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B613E146-296F-41D1-BF53-D2C8FE5FA2EB}">
-  <dimension ref="A1:AX32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F17D88-1668-4D35-AB39-7066D03D68A4}">
+  <dimension ref="A1:AX58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1810,10 +2110,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.90625" bestFit="1" customWidth="1"/>
@@ -1826,10 +2126,10 @@
     <col min="15" max="15" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.7265625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="30.90625" bestFit="1" customWidth="1"/>
@@ -1840,14 +2140,14 @@
     <col min="31" max="31" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="6.90625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="43.6328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="36.453125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="5.08984375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="43.6328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="32.81640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="20.36328125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="31" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.36328125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="34.90625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="11.90625" bestFit="1" customWidth="1"/>
@@ -2099,7 +2399,7 @@
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
       <c r="AS2" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
@@ -2109,16 +2409,16 @@
     </row>
     <row r="3" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2157,13 +2457,13 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -2176,7 +2476,7 @@
         <v>62</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -2184,7 +2484,7 @@
         <v>64</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>66</v>
@@ -2195,7 +2495,7 @@
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
@@ -2205,13 +2505,13 @@
     </row>
     <row r="4" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>53</v>
@@ -2253,37 +2553,37 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="AN4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="AP4" s="1" t="s">
         <v>67</v>
@@ -2291,7 +2591,7 @@
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
@@ -2301,13 +2601,13 @@
     </row>
     <row r="5" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>53</v>
@@ -2349,37 +2649,37 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="AN5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>67</v>
@@ -2387,7 +2687,7 @@
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
@@ -2397,13 +2697,13 @@
     </row>
     <row r="6" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>53</v>
@@ -2445,37 +2745,37 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="AN6" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="AP6" s="1" t="s">
         <v>67</v>
@@ -2483,7 +2783,7 @@
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
@@ -2493,13 +2793,13 @@
     </row>
     <row r="7" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>53</v>
@@ -2541,37 +2841,37 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="AN7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>67</v>
@@ -2579,7 +2879,7 @@
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
       <c r="AS7" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
@@ -2589,13 +2889,13 @@
     </row>
     <row r="8" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>53</v>
@@ -2637,37 +2937,37 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="AN8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="AP8" s="1" t="s">
         <v>67</v>
@@ -2675,7 +2975,7 @@
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
       <c r="AS8" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
@@ -2685,13 +2985,13 @@
     </row>
     <row r="9" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>53</v>
@@ -2733,37 +3033,37 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="AN9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>67</v>
@@ -2771,7 +3071,7 @@
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
       <c r="AS9" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT9" s="1"/>
       <c r="AU9" s="1"/>
@@ -2781,13 +3081,13 @@
     </row>
     <row r="10" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>53</v>
@@ -2829,37 +3129,37 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="AN10" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="AP10" s="1" t="s">
         <v>67</v>
@@ -2867,7 +3167,7 @@
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
       <c r="AS10" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
@@ -2877,13 +3177,13 @@
     </row>
     <row r="11" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>53</v>
@@ -2891,7 +3191,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
@@ -2925,34 +3225,34 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AO11" s="1" t="s">
         <v>66</v>
@@ -2963,7 +3263,7 @@
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
       <c r="AS11" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
@@ -2973,21 +3273,21 @@
     </row>
     <row r="12" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
@@ -3002,100 +3302,104 @@
         <v>57</v>
       </c>
       <c r="N12" s="3">
-        <v>0.113</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O12" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="4">
-        <v>175.41</v>
-      </c>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>306997</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="AH12" s="1"/>
       <c r="AI12" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="AP12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="AR12" s="1"/>
       <c r="AS12" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
+      <c r="AW12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="13" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
@@ -3110,102 +3414,104 @@
         <v>57</v>
       </c>
       <c r="N13" s="3">
-        <v>0.14499999999999999</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O13" s="3">
-        <v>11.595000000000001</v>
+        <v>7</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="4">
-        <v>196.62</v>
-      </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>306997</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="AH13" s="1"/>
       <c r="AI13" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="AR13" s="1"/>
       <c r="AS13" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
+      <c r="AW13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="14" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
@@ -3220,102 +3526,104 @@
         <v>57</v>
       </c>
       <c r="N14" s="3">
-        <v>0.36099999999999999</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O14" s="3">
-        <v>34.049999999999997</v>
+        <v>7</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="4">
-        <v>5411.34</v>
-      </c>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1" t="s">
-        <v>142</v>
-      </c>
+        <v>353821</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>146</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="AH14" s="1"/>
       <c r="AI14" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="AP14" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="AR14" s="1"/>
       <c r="AS14" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
-      <c r="AX14" s="1"/>
+      <c r="AW14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX14" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="15" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
@@ -3330,96 +3638,100 @@
         <v>57</v>
       </c>
       <c r="N15" s="3">
-        <v>0.35299999999999998</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O15" s="3">
-        <v>67.734999999999999</v>
+        <v>7</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="4">
-        <v>1290.6500000000001</v>
-      </c>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>353821</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH15" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="AH15" s="1"/>
       <c r="AI15" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="AM15" s="1" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="AP15" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT15" s="1"/>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
+      <c r="AW15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="16" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -3448,90 +3760,90 @@
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="4">
-        <v>401433</v>
+        <v>309115</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="AM16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="AP16" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="AR16" s="1"/>
       <c r="AS16" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT16" s="1"/>
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="AX16" s="1" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
@@ -3560,90 +3872,90 @@
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="4">
-        <v>401433</v>
+        <v>353821</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="AM17" s="1" t="s">
         <v>64</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="AR17" s="1"/>
       <c r="AS17" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
       <c r="AV17" s="1"/>
       <c r="AW17" s="1" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="AX17" s="1" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
@@ -3665,97 +3977,97 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="O18" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="4">
-        <v>306997</v>
+        <v>309115</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="AN18" s="1" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="AP18" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="AR18" s="1"/>
       <c r="AS18" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT18" s="1"/>
       <c r="AU18" s="1"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="AX18" s="1" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
@@ -3784,90 +4096,90 @@
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="4">
-        <v>306997</v>
+        <v>353821</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="AP19" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="AR19" s="1"/>
       <c r="AS19" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT19" s="1"/>
       <c r="AU19" s="1"/>
       <c r="AV19" s="1"/>
       <c r="AW19" s="1" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="AX19" s="1" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
@@ -3896,90 +4208,90 @@
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="4">
         <v>306997</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="AM20" s="1" t="s">
         <v>64</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="AP20" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT20" s="1"/>
       <c r="AU20" s="1"/>
       <c r="AV20" s="1"/>
       <c r="AW20" s="1" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="AX20" s="1" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
@@ -4001,97 +4313,97 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="O21" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="4">
-        <v>306997</v>
+        <v>276384</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="AM21" s="1" t="s">
         <v>64</v>
       </c>
       <c r="AN21" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="AP21" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="AR21" s="1"/>
       <c r="AS21" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT21" s="1"/>
       <c r="AU21" s="1"/>
       <c r="AV21" s="1"/>
       <c r="AW21" s="1" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="AX21" s="1" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
@@ -4113,97 +4425,97 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="O22" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="4">
         <v>306997</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ22" s="1" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="AM22" s="1" t="s">
         <v>64</v>
       </c>
       <c r="AN22" s="1" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="AP22" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ22" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="AR22" s="1"/>
       <c r="AS22" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
       <c r="AV22" s="1"/>
       <c r="AW22" s="1" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="AX22" s="1" t="s">
-        <v>218</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
@@ -4232,92 +4544,90 @@
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="4">
-        <v>306997</v>
+        <v>276384</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="AM23" s="1" t="s">
         <v>64</v>
       </c>
       <c r="AN23" s="1" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="AP23" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="AR23" s="1"/>
       <c r="AS23" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT23" s="1"/>
       <c r="AU23" s="1"/>
       <c r="AV23" s="1"/>
       <c r="AW23" s="1" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="AX23" s="1" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
@@ -4336,103 +4646,105 @@
         <v>57</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1" t="s">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="4">
-        <v>5</v>
+        <v>276384</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH24" s="1" t="s">
-        <v>232</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="AH24" s="1"/>
       <c r="AI24" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>233</v>
+        <v>109</v>
       </c>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1" t="s">
-        <v>234</v>
+        <v>110</v>
       </c>
       <c r="AM24" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="AN24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="AP24" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ24" s="1" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="AR24" s="1"/>
       <c r="AS24" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT24" s="1"/>
-      <c r="AU24" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="AU24" s="1"/>
       <c r="AV24" s="1"/>
-      <c r="AW24" s="1"/>
-      <c r="AX24" s="1"/>
+      <c r="AW24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX24" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="25" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
         <v>55</v>
@@ -4446,93 +4758,101 @@
         <v>57</v>
       </c>
       <c r="N25" s="3">
-        <v>0.216</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O25" s="3">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="4">
-        <v>0</v>
-      </c>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
+        <v>401433</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1" t="s">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ25" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK25" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="AK25" s="1"/>
       <c r="AL25" s="1" t="s">
-        <v>245</v>
+        <v>110</v>
       </c>
       <c r="AM25" s="1" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="AN25" s="1" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="AP25" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="AR25" s="1"/>
       <c r="AS25" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT25" s="1"/>
       <c r="AU25" s="1"/>
       <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
-      <c r="AX25" s="1"/>
+      <c r="AW25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX25" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="26" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
         <v>54</v>
@@ -4550,94 +4870,100 @@
         <v>57</v>
       </c>
       <c r="N26" s="3">
-        <v>0.159</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O26" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>249</v>
+        <v>58</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
-        <v>250</v>
+        <v>102</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="4">
-        <v>1227518</v>
-      </c>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
+        <v>401433</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ26" s="1" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1" t="s">
-        <v>252</v>
+        <v>110</v>
       </c>
       <c r="AM26" s="1" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="AN26" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="AP26" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="AR26" s="1"/>
       <c r="AS26" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT26" s="1"/>
       <c r="AU26" s="1"/>
       <c r="AV26" s="1"/>
-      <c r="AW26" s="1"/>
-      <c r="AX26" s="1"/>
+      <c r="AW26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX26" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="27" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
@@ -4656,96 +4982,104 @@
         <v>57</v>
       </c>
       <c r="N27" s="3">
-        <v>6.0000000000000001E-3</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O27" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1" t="s">
-        <v>258</v>
+        <v>102</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="4">
-        <v>129209.15</v>
-      </c>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
+        <v>376992</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ27" s="1" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AM27" s="1" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="AN27" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="AP27" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ27" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="AR27" s="1"/>
       <c r="AS27" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
-      <c r="AW27" s="1"/>
-      <c r="AX27" s="1"/>
+      <c r="AW27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX27" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="28" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
@@ -4760,94 +5094,100 @@
         <v>57</v>
       </c>
       <c r="N28" s="3">
-        <v>0.111</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O28" s="3">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="4">
-        <v>0</v>
-      </c>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
+        <v>401433</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ28" s="1" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1" t="s">
-        <v>269</v>
+        <v>110</v>
       </c>
       <c r="AM28" s="1" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="AN28" s="1" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="AP28" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ28" s="1" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="AR28" s="1"/>
       <c r="AS28" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT28" s="1"/>
       <c r="AU28" s="1"/>
       <c r="AV28" s="1"/>
-      <c r="AW28" s="1"/>
-      <c r="AX28" s="1"/>
+      <c r="AW28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX28" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="29" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>273</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
@@ -4866,96 +5206,100 @@
         <v>57</v>
       </c>
       <c r="N29" s="3">
-        <v>0</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O29" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="4">
-        <v>10000000</v>
-      </c>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
+        <v>401433</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH29" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="AH29" s="1"/>
       <c r="AI29" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ29" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1" t="s">
-        <v>276</v>
+        <v>110</v>
       </c>
       <c r="AM29" s="1" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="AN29" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="AP29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ29" s="1" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="AR29" s="1"/>
       <c r="AS29" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT29" s="1"/>
       <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
-      <c r="AW29" s="1"/>
-      <c r="AX29" s="1"/>
+      <c r="AW29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX29" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="30" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
@@ -4974,94 +5318,100 @@
         <v>57</v>
       </c>
       <c r="N30" s="3">
-        <v>0</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O30" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="4">
-        <v>2500000</v>
-      </c>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
+        <v>306997</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH30" s="1" t="s">
-        <v>281</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="AH30" s="1"/>
       <c r="AI30" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ30" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1" t="s">
-        <v>276</v>
+        <v>110</v>
       </c>
       <c r="AM30" s="1" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="AN30" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="AP30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ30" s="1" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="AR30" s="1"/>
       <c r="AS30" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT30" s="1"/>
       <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
-      <c r="AW30" s="1"/>
-      <c r="AX30" s="1"/>
+      <c r="AW30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX30" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="31" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>282</v>
+        <v>219</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
@@ -5080,102 +5430,104 @@
         <v>57</v>
       </c>
       <c r="N31" s="3">
-        <v>4.8000000000000001E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O31" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="4">
-        <v>0</v>
+        <v>306997</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1" t="s">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1" t="s">
-        <v>286</v>
+        <v>221</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ31" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AK31" s="1"/>
       <c r="AL31" s="1" t="s">
-        <v>287</v>
+        <v>110</v>
       </c>
       <c r="AM31" s="1" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="AN31" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="AP31" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ31" s="1" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="AR31" s="1"/>
       <c r="AS31" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT31" s="1"/>
-      <c r="AU31" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="AU31" s="1"/>
       <c r="AV31" s="1"/>
-      <c r="AW31" s="1"/>
-      <c r="AX31" s="1"/>
+      <c r="AW31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX31" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="32" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>290</v>
+        <v>224</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>114</v>
+        <v>225</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
@@ -5190,86 +5542,2988 @@
         <v>57</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O32" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
-        <v>291</v>
+        <v>102</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="4">
-        <v>0.01</v>
+        <v>306997</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1" t="s">
-        <v>294</v>
+        <v>228</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1" t="s">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1" t="s">
-        <v>296</v>
+        <v>107</v>
       </c>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH32" s="1" t="s">
-        <v>298</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="AH32" s="1"/>
       <c r="AI32" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AJ32" s="1" t="s">
-        <v>299</v>
+        <v>109</v>
       </c>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1" t="s">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="AM32" s="1" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="AN32" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO32" s="1" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="AP32" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AQ32" s="1" t="s">
-        <v>301</v>
+        <v>114</v>
       </c>
       <c r="AR32" s="1"/>
       <c r="AS32" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AT32" s="1"/>
-      <c r="AU32" s="1" t="s">
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AX32" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N33" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O33" s="3">
+        <v>2</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S33" s="1"/>
+      <c r="T33" s="4">
+        <v>308805</v>
+      </c>
+      <c r="U33" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AV32" s="1"/>
-      <c r="AW32" s="1"/>
-      <c r="AX32" s="1"/>
+      <c r="V33" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AX33" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N34" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O34" s="3">
+        <v>2</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S34" s="1"/>
+      <c r="T34" s="4">
+        <v>306997</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX34" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N35" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O35" s="3">
+        <v>2</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S35" s="1"/>
+      <c r="T35" s="4">
+        <v>306997</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM35" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AN35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX35" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N36" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O36" s="3">
+        <v>7</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S36" s="1"/>
+      <c r="T36" s="4">
+        <v>337610</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX36" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N37" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O37" s="3">
+        <v>7</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S37" s="1"/>
+      <c r="T37" s="4">
+        <v>337610</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX37" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N38" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O38" s="3">
+        <v>2</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S38" s="1"/>
+      <c r="T38" s="4">
+        <v>337610</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM38" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX38" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N39" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O39" s="3">
+        <v>2</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S39" s="1"/>
+      <c r="T39" s="4">
+        <v>218773</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM39" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AN39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX39" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N40" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O40" s="3">
+        <v>2</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S40" s="1"/>
+      <c r="T40" s="4">
+        <v>218773</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM40" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AN40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX40" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N41" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O41" s="3">
+        <v>7</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S41" s="1"/>
+      <c r="T41" s="4">
+        <v>401433</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM41" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX41" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N42" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O42" s="3">
+        <v>7</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S42" s="1"/>
+      <c r="T42" s="4">
+        <v>306997</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM42" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AN42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AX42" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N43" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O43" s="3">
+        <v>7</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S43" s="1"/>
+      <c r="T43" s="4">
+        <v>308805</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX43" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N44" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O44" s="3">
+        <v>7</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S44" s="1"/>
+      <c r="T44" s="4">
+        <v>306997</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX44" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N45" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O45" s="3">
+        <v>2</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S45" s="1"/>
+      <c r="T45" s="4">
+        <v>306997</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM45" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AN45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AX45" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N46" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O46" s="3">
+        <v>2</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S46" s="1"/>
+      <c r="T46" s="4">
+        <v>215158</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX46" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N47" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O47" s="3">
+        <v>7</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S47" s="1"/>
+      <c r="T47" s="4">
+        <v>276384</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX47" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N48" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O48" s="3">
+        <v>7</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S48" s="1"/>
+      <c r="T48" s="4">
+        <v>401433</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX48" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N49" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O49" s="3">
+        <v>2</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S49" s="1"/>
+      <c r="T49" s="4">
+        <v>276384</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX49" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N50" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O50" s="3">
+        <v>2</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S50" s="1"/>
+      <c r="T50" s="4">
+        <v>276384</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT50" s="1"/>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX50" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N51" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O51" s="3">
+        <v>7</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S51" s="1"/>
+      <c r="T51" s="4">
+        <v>437900</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ51" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM51" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AX51" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N52" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O52" s="3">
+        <v>7</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S52" s="1"/>
+      <c r="T52" s="4">
+        <v>437900</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ52" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM52" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX52" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N53" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O53" s="3">
+        <v>7</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S53" s="1"/>
+      <c r="T53" s="4">
+        <v>303000</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ53" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT53" s="1"/>
+      <c r="AU53" s="1"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX53" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N54" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O54" s="3">
+        <v>1</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S54" s="1"/>
+      <c r="T54" s="4">
+        <v>303000</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ54" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT54" s="1"/>
+      <c r="AU54" s="1"/>
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX54" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N55" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O55" s="3">
+        <v>7</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S55" s="1"/>
+      <c r="T55" s="4">
+        <v>303000</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ55" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM55" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT55" s="1"/>
+      <c r="AU55" s="1"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX55" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N56" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O56" s="3">
+        <v>1</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S56" s="1"/>
+      <c r="T56" s="4">
+        <v>303000</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ56" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM56" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT56" s="1"/>
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="1"/>
+      <c r="AW56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX56" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="S57" s="1"/>
+      <c r="T57" s="4">
+        <v>0</v>
+      </c>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ57" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AM57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN57" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ57" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT57" s="1"/>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="1"/>
+      <c r="AX57" s="1"/>
+    </row>
+    <row r="58" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="S58" s="1"/>
+      <c r="T58" s="4">
+        <v>0</v>
+      </c>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH58" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AI58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ58" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AM58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN58" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AO58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ58" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AR58" s="1"/>
+      <c r="AS58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT58" s="1"/>
+      <c r="AU58" s="1"/>
+      <c r="AV58" s="1"/>
+      <c r="AW58" s="1"/>
+      <c r="AX58" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5278,7 +8532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7CD4AF-B439-4DE8-A84A-4C0BD723F050}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB831A5-901F-4B1F-B019-BB59BFC22ED1}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5290,7 +8544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D62E06-15F2-44BE-86C3-8E810DB628E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADE3A7D-8E93-420D-BBE6-C423AE1D0136}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
